--- a/Spanish Learning/Grammar Videos.xlsx
+++ b/Spanish Learning/Grammar Videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Fratini\Desktop\My Stuff\Spanish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4DA097-BC57-4C4B-9D2F-46933AA51E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32752644-D6CF-4A73-8ED1-99E433B82495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="1575" windowWidth="18465" windowHeight="11250" xr2:uid="{2B085799-EFCE-40AE-884F-FF288C8F88EA}"/>
+    <workbookView xWindow="4890" yWindow="1530" windowWidth="18465" windowHeight="11250" xr2:uid="{2B085799-EFCE-40AE-884F-FF288C8F88EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Present progressive Spanish</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>https://www.tellmeinspanish.com/grammar/personal-a-in-spanish/</t>
+  </si>
+  <si>
+    <t>Direct Object Pronouns</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9avJhKHsJYA?si=WivPOCWOFrtO9iPy</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89755FAF-9D97-4B2F-8667-A325A10655D8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -608,6 +614,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
